--- a/Feature-Analysis/Resize Feature/s_02_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_02_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.58760416671</v>
+        <v>738157.58760416671</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.58827546297</v>
+        <v>738157.58827546297</v>
       </c>
       <c r="C3" s="0">
         <v>57.999997213482857</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.58859953703</v>
+        <v>738157.58859953703</v>
       </c>
       <c r="C4" s="0">
         <v>85.999996215105057</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.58894675924</v>
+        <v>738157.58894675924</v>
       </c>
       <c r="C5" s="0">
         <v>115.99999442696571</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.58935185184</v>
+        <v>738157.58935185184</v>
       </c>
       <c r="C6" s="0">
         <v>150.99999569356441</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.58962962963</v>
+        <v>738157.58962962963</v>
       </c>
       <c r="C7" s="0">
         <v>174.9999962747097</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.58998842596</v>
+        <v>738157.58998842596</v>
       </c>
       <c r="C8" s="0">
         <v>205.99999912083149</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.59033564816</v>
+        <v>738157.59033564816</v>
       </c>
       <c r="C9" s="0">
         <v>235.99999733269215</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.59101851855</v>
+        <v>738157.59101851855</v>
       </c>
       <c r="C10" s="0">
         <v>294.99999918043613</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.59137731476</v>
+        <v>738157.59137731476</v>
       </c>
       <c r="C11" s="0">
         <v>325.99999196827412</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.59206018515</v>
+        <v>738157.59206018515</v>
       </c>
       <c r="C12" s="0">
         <v>384.9999938160181</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.59206018515</v>
+        <v>738157.59206018515</v>
       </c>
       <c r="C13" s="0">
         <v>384.9999938160181</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.59244212962</v>
+        <v>738157.59244212962</v>
       </c>
       <c r="C14" s="0">
         <v>417.99999587237835</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.5928356481</v>
+        <v>738157.5928356481</v>
       </c>
       <c r="C15" s="0">
         <v>451.99999250471592</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.59319444443</v>
+        <v>738157.59319444443</v>
       </c>
       <c r="C16" s="0">
         <v>482.99999535083771</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.5934606482</v>
+        <v>738157.5934606482</v>
       </c>
       <c r="C17" s="0">
         <v>506.00000135600567</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.59380787041</v>
+        <v>738157.59380787041</v>
       </c>
       <c r="C18" s="0">
         <v>535.99999956786633</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.59415509261</v>
+        <v>738157.59415509261</v>
       </c>
       <c r="C19" s="0">
         <v>565.99999777972698</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.59449074068</v>
+        <v>738157.59449074068</v>
       </c>
       <c r="C20" s="0">
         <v>594.99999135732651</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.59519675921</v>
+        <v>738157.59519675921</v>
       </c>
       <c r="C21" s="0">
         <v>655.99999241530895</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.59561342595</v>
+        <v>738157.59561342595</v>
       </c>
       <c r="C22" s="0">
         <v>691.99999831616879</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.59596064815</v>
+        <v>738157.59596064815</v>
       </c>
       <c r="C23" s="0">
         <v>721.99999652802944</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.59623842593</v>
+        <v>738157.59623842593</v>
       </c>
       <c r="C24" s="0">
         <v>745.99999710917473</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.5966203704</v>
+        <v>738157.5966203704</v>
       </c>
       <c r="C25" s="0">
         <v>778.99999916553497</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.5969097222</v>
+        <v>738157.5969097222</v>
       </c>
       <c r="C26" s="0">
         <v>803.99999432265759</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.59733796294</v>
+        <v>738157.59733796294</v>
       </c>
       <c r="C27" s="0">
         <v>840.99999479949474</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.59763888887</v>
+        <v>738157.59763888887</v>
       </c>
       <c r="C28" s="0">
         <v>866.99999459087849</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.59798611107</v>
+        <v>738157.59798611107</v>
       </c>
       <c r="C29" s="0">
         <v>896.99999280273914</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.59832175926</v>
+        <v>738157.59832175926</v>
       </c>
       <c r="C30" s="0">
         <v>925.99999643862247</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.59900462965</v>
+        <v>738157.59900462965</v>
       </c>
       <c r="C31" s="0">
         <v>984.99999828636646</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.59937499999</v>
+        <v>738157.59937499999</v>
       </c>
       <c r="C32" s="0">
         <v>1016.9999957084656</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.5997800926</v>
+        <v>738157.5997800926</v>
       </c>
       <c r="C33" s="0">
         <v>1051.9999969750643</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.60008101852</v>
+        <v>738157.60008101852</v>
       </c>
       <c r="C34" s="0">
         <v>1077.999996766448</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.60038194444</v>
+        <v>738157.60038194444</v>
       </c>
       <c r="C35" s="0">
         <v>1103.9999965578318</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.60076388891</v>
+        <v>738157.60076388891</v>
       </c>
       <c r="C36" s="0">
         <v>1136.999998614192</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.60112268524</v>
+        <v>738157.60112268524</v>
       </c>
       <c r="C37" s="0">
         <v>1168.0000014603138</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.60179398151</v>
+        <v>738157.60179398151</v>
       </c>
       <c r="C38" s="0">
         <v>1225.9999986737967</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.60179398151</v>
+        <v>738157.60179398151</v>
       </c>
       <c r="C39" s="0">
         <v>1225.9999986737967</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.60214120371</v>
+        <v>738157.60214120371</v>
       </c>
       <c r="C40" s="0">
         <v>1255.9999968856573</v>
